--- a/PRODUTOS/Frios/Frios - Margarinas, manteigas e requeijoes.xlsx
+++ b/PRODUTOS/Frios/Frios - Margarinas, manteigas e requeijoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Margarina Qualy C/sal 500g</t>
+          <t>Requeijao Itambé Cremoso 220g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ae69617-4a5c-4933-ab24-23d1c9399baf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20f00806-18cf-4600-a6be-810cd5bb0ab1.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896051140016</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Danone 200gr Regular</t>
+          <t>Pate De Presunto Sadia 100gr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 4,79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ed82be7-a25a-4049-9ae7-87c02a013eb2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17d8395b-3957-47c2-b31a-a648983c7c68.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7893000004757</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Margarina Doriana C/sal 500g</t>
+          <t>Requeijao Bisnaga Tirolez 250g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02430fe1-0c2e-461b-aebe-04fe82fcbcf8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73c2141a-3ca9-4d2c-8f44-83675bf7fad6.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896353300033</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Tradicional Vigor 200g</t>
+          <t>Pate De Salsa E Cebolinha 100g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 11,39</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d65ed75-d073-43c6-bc7b-2652917b2191.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896398500269</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Requeijao Tirolez Cremoso 200g Trad</t>
+          <t>Pate De Alho Poró 100g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bbb66b8-4131-447e-8bc5-0043723a8f1c.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896174201007</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Margarina Claybom C/sal 500g</t>
+          <t>Gordura Vegetal Primor 500g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ec41a88-6366-451d-8bc7-e613189a1acd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc71df54-a84a-4350-b057-132abf9e9485.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7894904271191</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Requeijao Danone Light 200gr</t>
+          <t>Banha Suina Aurora 1kg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/780f60d8-e69c-4339-8d96-0a37fd2fdc8c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b78e1722-abd9-4655-9cd1-31d2420f63f8.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891164007010</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Manteiga Aviacao C/ Sal Pote 200g</t>
+          <t>Requeijao Cremoso Tradicional Vigor 200g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 11,39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1546a0d-1296-4584-9802-578ce6a1b408.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d65ed75-d073-43c6-bc7b-2652917b2191.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896294900712</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Catupiry 200g Tradicional</t>
+          <t>Requeijao Tirolez Cremoso 200g Trad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/996002de-cbbe-48aa-8903-7a4adf8f8ba8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bbb66b8-4131-447e-8bc5-0043723a8f1c.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896051140016</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Margarina Delicia 500g Com Sal Creme De Leite</t>
+          <t>Margarina Becel Sem Sal 500g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 9,79</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdd2e335-bdbd-4932-a1ff-ef13664825be.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c0e7d38-dd69-40ee-ab3e-ae61bfb12ac9.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891515555337</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Requeijão Vigor 400g Tradicional</t>
+          <t>Margarina Becel Com Sal 500g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 21,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b57320d-2736-4756-8e79-0a30b7c6cc3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1fae00-c88f-4742-94a3-bcc03b9a27b0.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891515555337</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Margarina Doriana S/sal 500g</t>
+          <t>Margarina Doriana C/sal 250g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e11ca210-7b3b-46ca-98f2-69331ed6e230.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1a35bfa-30d3-43f2-8df6-5830b54d3f31.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7894904577675</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Manteiga Aviacao Com Sal Pote 500g</t>
+          <t>Margarina Doriana S/sal 500g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 39,90</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/600f8c56-99d1-46a0-848d-4f6d00e1490a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e11ca210-7b3b-46ca-98f2-69331ed6e230.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7894904577675</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Paulista 180g</t>
+          <t>Margarina Doriana Light Com Sal 500g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bccbacfa-43d6-44f4-93d8-90a02a6332b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f05a9c2-451d-4a2c-9c42-ffb03a5af003.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7894904571949</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Catupiry 200g Light</t>
+          <t>Manteiga Extra Batavo Com Sal 200g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/755804aa-83a2-442d-b2e0-ffbc483be6c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1286f5f-ab3b-45a6-be7a-c167c724896a.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896079535092</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Creme De Ricota Tirolez 200g Tradicional</t>
+          <t>Manteiga Extra Batavo Com Sal Pote 200g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d802bfee-351c-440e-9071-781e995ffa8e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bb94303-4750-4939-92dc-1a68e70f1aa6.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896079535092</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Catupiry 420g Tradicional Copo</t>
+          <t>Requeijao Cremoso Light Vigor 200g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/717176e0-651d-49c4-b35d-e15815f82af5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e41d8e0c-fdec-408d-9094-05113815e41b.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896051140016</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Manteiga Aviacao C/sal Tablete 200g</t>
+          <t>Margarina C/manteiga Vigor Mix C/sal500g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d764b25d-63f4-4867-b94c-391d7d2dd369.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdbc4eea-c207-4b25-942c-485810c9857b.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891999862501</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Margarina Becel Com Sal 500g</t>
+          <t>Requeijão Cremoso Catupiry Bisnaga 250g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1fae00-c88f-4742-94a3-bcc03b9a27b0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f22bc4a4-f462-483d-8fba-73c8219ed081.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896353300033</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Light Vigor 200g</t>
+          <t>Manteiga Extra Batavo Sem Sal 200g</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e41d8e0c-fdec-408d-9094-05113815e41b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5200b3ff-0ce9-4b53-b263-63e09ad5255f.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896079535092</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Manteiga Paulista Pote 200g Com Sal</t>
+          <t>Manteiga E Margarina Leco Extra S/sal 200gr</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae9c83d8-9961-4e71-a8bd-371a1b1098e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2ca0510-c023-4360-8781-94bd17704df1.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7892999861204</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Manteiga Danone Tablete 200g Com Sal</t>
+          <t>Manteiga E Margarina Leco Extra C/sal 200gr</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9383a7a1-a049-4533-8dbd-dacae2236fdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a97e28f-1471-4e2d-956c-fbd8881432cd.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7892999862201</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Margarina Vigor 80% C/sal 500g</t>
+          <t>Margarina Qualy Sem Sal 250g</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0516c57d-ce2f-43bd-a07d-c616e20195ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f43eb973-cfda-416f-8a7a-3386d7a709ae.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7893000081628</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Margarina Doriana 1kg</t>
+          <t>Margarina Qualy S/sal 500g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db3d203f-b6eb-48d5-bf0f-2de137598c2e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb6a4bf0-1bbc-4b28-a684-931fe7806b96.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891999010995</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Manteiga E Margarina Leco Extra C/sal 200gr</t>
+          <t>Margarina Qualy C/sal 500g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a97e28f-1471-4e2d-956c-fbd8881432cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ae69617-4a5c-4933-ab24-23d1c9399baf.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7893000080485</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Requeijao Aviação 180gr Trad</t>
+          <t>Margarina Qualy Sem Lactose Com Sal 500g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bfe09cf-55e8-4336-8e5a-0d1c3d907953.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf0d6003-37a5-4a3b-bd09-2765d7b44107.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7893000080485</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Manteiga President 200g C/sal</t>
+          <t>Margarina Qualy Sem Lactose Com Sal 250gr</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7ebd5b0-312f-4388-9e1d-3bb547981d81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3c030db-1bef-4ca5-9b7b-c5cbf780dd2c.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7893000080485</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Requeijao Tirolez 400g Light</t>
+          <t>Requeijão Cremoso Catupiry Disco 410g</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6b23d69-f905-42c5-80a3-cd01692a2883.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/035a95ac-87a5-4f7d-9289-ed789f11ec86.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896353300064</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Manteiga Tirol Tablet 200g Com Sal</t>
+          <t>Requeijao Cremoso Santiago 250g</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 12,98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7abbb2c-c3e3-4f40-959f-508b0ce951da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/205fae4f-f73a-44db-9ad1-ea51a531ac11.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898315260089</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Manteiga Presidente Pote 200g C/sal</t>
+          <t>Chanty Mix Amelia 200ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 18,49</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc1e19f9-ba8e-4c5c-8460-b75014188e29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2512a15-ee46-4083-bf3c-55ad47a30867.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896096013542</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Margarina Doriana C/sal 250g</t>
+          <t>Manteiga Aviacao Com Sal Pote 500g</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 39,90</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1a35bfa-30d3-43f2-8df6-5830b54d3f31.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/600f8c56-99d1-46a0-848d-4f6d00e1490a.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896331100327</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pate Seara 100g Presunto</t>
+          <t>Manteiga Aviacao C/ Sal Pote 200g</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d10989d7-fa22-4c2a-912d-8fe4d71300b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1546a0d-1296-4584-9802-578ce6a1b408.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896331100389</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Queijo Processado Supremo 200g Requeijao</t>
+          <t>Requeijao Cremoso Santiago 200g</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe169cb7-9e1c-4bcd-a062-ee2cc8b7a9ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f193aeb0-1dd8-4ab1-8e51-391fa50d9ca6.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7898315260195</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Requeijao Serramar 180g Cremoso</t>
+          <t>Manteiga Tirolez C/ Sal 200g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 7,79</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29ffdc7e-8f22-48b6-b1e0-5404db4244a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb8a4ffd-de5e-421b-aca2-660edd155700.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896030519635</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Margarina Qualy Com Sal 250gr</t>
+          <t>Manteiga Tirolez S/ Sal 200g</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f56e217a-d677-4b9a-9be3-f4870b2f1023.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f6a6283-80b0-4880-b21f-e02622c8748f.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896030519659</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Requeijão Poços De Caldas</t>
+          <t>Pate Damm 120g Ricota C/manjericão</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f41e7c8c-7337-4c76-bffd-1f05780ac4ce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03a2744-e8b2-4fba-b8ed-e879b0cd7041.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896079903365</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Manteiga Catupiry Tablete 200g Extra Com Sal</t>
+          <t>Pate Damm 120g Ricota C/salmão</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10b5f3a4-ce7d-458f-b492-151ce0b3002b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db975cdf-45f8-4e28-838e-178ce1653d41.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896079903365</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Catupiry Bisnaga 250g</t>
+          <t>Pate Seara 100g Presunto</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f22bc4a4-f462-483d-8fba-73c8219ed081.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d10989d7-fa22-4c2a-912d-8fe4d71300b8.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7894904573387</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Margarina Claybom S/sal 500g</t>
+          <t>Pate Seara 100g Peito De Peru</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc3803e1-e5d3-4be3-8f7b-975a8aa32a68.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5b58643-4483-4c87-9aa8-9e3d84e6477e.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7894904268559</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Margarina Delicia Supreme 500g C/ Sal Creme De Leite</t>
+          <t>Pate Seara 100g Frango</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dccd2249-f3e1-4d70-9893-0e8c798cf762.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f311cd57-d0dc-41f9-9230-fcb466f436ab.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7894904573394</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Manteiga Tirolez C/ Sal 200g</t>
+          <t>Margarina Claybom C/sal 500g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb8a4ffd-de5e-421b-aca2-660edd155700.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ec41a88-6366-451d-8bc7-e613189a1acd.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891515555337</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Margarina Delicia 1kg Com Sal Creme De Leite</t>
+          <t>Margarina Claybom S/sal 500g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ede7690b-8610-414a-a964-00bae4d8ae58.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc3803e1-e5d3-4be3-8f7b-975a8aa32a68.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7891999010995</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Requeijao Pocos De Caldas Trad 200g</t>
+          <t>Margarina Qualy Com Sal Aerada 250g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 11,39</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/caef8b9d-c55a-42d8-b020-ec7fada08e25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4e6ebed-25c7-4a6e-b244-b45a765c5a5f.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7893000081628</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Manteiga Paulista Pote 200g Sem Sal</t>
+          <t>Manteiga Aviacao C/sal Tablete 200g</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dae440c9-e5c8-4f94-8929-eb3f612df127.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d764b25d-63f4-4867-b94c-391d7d2dd369.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896331100143</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Batavo Pote 400g Queijo</t>
+          <t>Manteiga Aviacao S/ Sal Pote 200g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c37b9e76-cb2b-46e7-a84b-0990f3cd5d97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1248634-ac51-4ea5-8e92-80efbcf68dfe.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896331100389</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Manteiga Aviacao S/ Sal Tablete 200g</t>
+          <t>Margarina Qualy Com Sal 500g Aerada</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f567dde3-129b-4e91-8f76-5983e2891b61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3eed39c-7cd7-4195-8c2b-482046a56146.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7893000081628</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Catupiry 250g Disco</t>
+          <t>Manteiga Matilat Pote 200g C/ Sal</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/617003f6-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45563b5e-5a7c-462e-b2f3-1be001e33e61.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896238101236</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Manteiga E Margarina Leco Extra S/sal 200gr</t>
+          <t>Manteiga Matilat Pote 200g S/ Sal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2ca0510-c023-4360-8781-94bd17704df1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69787ceb-a5ae-4aa5-80c5-1eee66fc46e7.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896238101236</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Manteiga Aviacao S/ Sal Pote 200g</t>
+          <t>Margarina Vigor 80% C/sal 500g</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1248634-ac51-4ea5-8e92-80efbcf68dfe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0516c57d-ce2f-43bd-a07d-c616e20195ca.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891999011039</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Manteiga Itambe Pote 200gr C/sal</t>
+          <t>Margarina Vigor 80% S/sal 500g</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8df8bce7-404b-416c-826f-7527bcb277eb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0ac1363-ca00-4a3b-b062-eeec542d0f13.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891999010995</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pate De Presunto Sadia 100gr</t>
+          <t>Requeijão Cremoso Catupiry 200g Tradicional</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 4,79</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17d8395b-3957-47c2-b31a-a648983c7c68.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/996002de-cbbe-48aa-8903-7a4adf8f8ba8.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896353302068</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Presidente 200g Tradicional</t>
+          <t>Requeijão Cremoso Catupiry 200g Light</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4dcc123-39ee-43cc-a3aa-e2f867d4c999.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/755804aa-83a2-442d-b2e0-ffbc483be6c4.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896353301191</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Margarina Claybom 500g Com Sal Sabor Manteiga</t>
+          <t>Requeijao Crem Catupiry 250g Alho Poro</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d1a9fff-dfef-4311-b444-76756ffc2942.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffe0e0d1-6b0e-4967-a27d-690360a5f762.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896353301139</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Manteiga Catupiry 500g C/sal</t>
+          <t>Requeijao Crem Catupiry 250g 4 Queijos</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d98c991-e4b1-45bc-9d81-b4e888474262.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8378d600-7e73-44da-b663-7fd90e550356.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896353301115</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Requeijão Danubio 190g Tradicional</t>
+          <t>Requeijao Crem Catupiry 250g Cheddar</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89252acd-c850-4fc0-a106-c0326e920de6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87fe76d1-48aa-474c-8322-1cd3692d6ba7.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896353301177</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Manteiga Extra Batavo Com Sal 200g</t>
+          <t>Margarina Doriana 1kg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1286f5f-ab3b-45a6-be7a-c167c724896a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db3d203f-b6eb-48d5-bf0f-2de137598c2e.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7894904577675</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Manteiga Danone Tablete 200g Sem Sal</t>
+          <t>Requeijao Pocos De Caldas Trad 200g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 11,39</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1de61538-0511-4f27-aa31-aafdc09842ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/caef8b9d-c55a-42d8-b020-ec7fada08e25.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898955617397</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Manteiga Danone C/sal 200g Pote</t>
+          <t>Creme Vegetal Qualy Vita 500gr S/sal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60d878a9-f8ec-4019-b332-aac1d8afaad3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9ac1197-122e-4d08-ad78-710535a934dc.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891515520656</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Margarina Becel Sem Sal 500g</t>
+          <t>Creme Vegetal Qualy Vita 250gr C/sal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,79</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c0e7d38-dd69-40ee-ab3e-ae61bfb12ac9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff3ff1e4-1649-4040-8e74-380b81046585.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891515520625</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Santiago 200g</t>
+          <t>Creme De Ricota Tirolez 200g Tradicional</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f193aeb0-1dd8-4ab1-8e51-391fa50d9ca6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d802bfee-351c-440e-9071-781e995ffa8e.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896030519628</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Margarina Vigor 80% S/sal 500g</t>
+          <t>Requeijao Danone Light 200gr</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0ac1363-ca00-4a3b-b062-eeec542d0f13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/780f60d8-e69c-4339-8d96-0a37fd2fdc8c.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896625211234</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Banha Suina Aurora 1kg</t>
+          <t>Molho Polenghi 220g Cheddar</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b78e1722-abd9-4655-9cd1-31d2420f63f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3834a86-5351-460b-ae63-71b86611952f.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891143020030</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Chanty Mix Amelia 200ml</t>
+          <t>Manteiga Presidente Pote 200g C/sal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 18,49</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2512a15-ee46-4083-bf3c-55ad47a30867.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc1e19f9-ba8e-4c5c-8460-b75014188e29.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7891097001338</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Margarina C/manteiga Vigor Mix C/sal500g</t>
+          <t>Manteiga Presidente Pote 200g S/sal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 18,49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdbc4eea-c207-4b25-942c-485810c9857b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4381c99a-b6fa-4e3f-b935-cc4a6586c1e3.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891097001345</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Catupiry 150g Zero Lactose</t>
+          <t>Margarina Qualy Com Sal 250gr</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cbce147-2821-47d1-aee6-e44ad0fcd784.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f56e217a-d677-4b9a-9be3-f4870b2f1023.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7893000081628</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Manteiga Extra Batavo Com Sal Pote 200g</t>
+          <t>Requeijao Aviação 180gr Trad</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3bb94303-4750-4939-92dc-1a68e70f1aa6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bfe09cf-55e8-4336-8e5a-0d1c3d907953.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896331100921</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Catupiry 420g Light</t>
+          <t>Requeijao Cremoso Catupiry 250g Disco</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa3a9fe6-5a83-48f1-b2bb-5b042cda9bc4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/617003f6-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896353300453</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Manteiga Presidente Pote 200g S/sal</t>
+          <t>Creme Vegetal Mant Becel Pt 250g C/ Sal</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 18,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4381c99a-b6fa-4e3f-b935-cc4a6586c1e3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85417bff-047d-450a-8373-b543d3c91375.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7891515555245</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Margarina Qualy Sem Sal 250g</t>
+          <t>Creme Vegetal Orig Becel Pt 250g C/sal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f43eb973-cfda-416f-8a7a-3386d7a709ae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2257b4e-5571-49ff-a650-c35ccfbf8c13.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7891515555245</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Manteiga Catupiry Tablete 200g Extra Sem Sal</t>
+          <t>Requeijão Poços De Caldas</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/408b5272-15d2-4694-a4a7-d0b568d15b2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f41e7c8c-7337-4c76-bffd-1f05780ac4ce.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7898955617397</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Requeijão Serramar 400g Tradicional</t>
+          <t>Requeijao Cremoso Presidente 200g Tradicional</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61a1195e-273f-4e80-9351-e82f41a86227.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4dcc123-39ee-43cc-a3aa-e2f867d4c999.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896051140016</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Creme Vegetal Orig Becel Pt 250g C/sal</t>
+          <t>Margarina Claybom 1kg Com Sal</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2257b4e-5571-49ff-a650-c35ccfbf8c13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84bfd82f-0d7c-4c48-a06b-0544dd03c6a4.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7893000080485</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Requeijao Bisnaga Tirolez 250g</t>
+          <t>Manteiga Tirolez Tab 200g S/ Sal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73c2141a-3ca9-4d2c-8f44-83675bf7fad6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff225c2d-9543-4b76-97dd-cc0af285c1ea.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896030519659</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Requeijão Danubio 190g Light</t>
+          <t>Requeijao Cremoso Quata Bisnaga 250g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3eca975-a712-4158-aa2d-fea6ec9fe1a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2853666b-b9df-4aa4-b919-3806f87c9df8.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7898598750031</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Manteiga Matilat Pote 200g C/ Sal</t>
+          <t>Manteiga Danone C/sal 200g Pote</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45563b5e-5a7c-462e-b2f3-1be001e33e61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60d878a9-f8ec-4019-b332-aac1d8afaad3.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891025123101</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Tirol 180g Tradicional</t>
+          <t>Manteiga Catupiry Tablete 200g Extra Com Sal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 7,79</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec00c1f-8166-4975-a6c6-398fe005d18e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10b5f3a4-ce7d-458f-b492-151ce0b3002b.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896353302303</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Manteiga Tirolez S/ Sal 200g</t>
+          <t>Manteiga Catupiry Tablete 200g Extra Sem Sal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f6a6283-80b0-4880-b21f-e02622c8748f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/408b5272-15d2-4694-a4a7-d0b568d15b2f.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896353303058</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Manteiga Tirolez Tab 200g C/ Sal</t>
+          <t>Requeijao Castanha Caju Vida Veg 180g Defumado</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 15,49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6403fc52-b9e8-428d-b10f-11359a30f273.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6db7c720-62fc-47b2-86b7-c5fbcf89f4da.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7898958161583</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pate Seara 100g Frango</t>
+          <t>Requeijao Catupiry 180g Plantury Tradicional</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f311cd57-d0dc-41f9-9230-fcb466f436ab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8491839a-74d7-4b5a-9e1c-398d2149185e.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7896353302396</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Santiago 250g</t>
+          <t>Requeijão Catupiry 180g Ceb Caramelizada</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 12,98</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/205fae4f-f73a-44db-9ad1-ea51a531ac11.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/561f20ce-2ebf-4ea9-887d-14d3989bca25.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896353302181</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Margarina Qualy Sem Lactose Com Sal 500g</t>
+          <t>Requeijão Aviaçao 180g Cheddar</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf0d6003-37a5-4a3b-bd09-2765d7b44107.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3386bed-e2db-4493-9b8b-26fa4b86ed1c.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896331100921</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Margarina Delicia 500 G S/sal Com Creme De Leite</t>
+          <t>Banha Suina Refinada Sadia 500g</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8eefed3-c3a0-4f07-9ca9-2bd966011f8a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/019172eb-0b53-40e4-8374-603c4ba3bffb.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891515556914</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Manteiga Aviacao Pote 200g Zero Lactose</t>
+          <t>Margarina Claybom 1kg Sabor Manteiga</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e65ff4e-4842-4c0d-9f61-ee430e4dfa42.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f4ee15a-6170-4dcf-87e7-e9cf4283c94a.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7891515574840</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Margarina Claybom 1kg Sabor Manteiga</t>
+          <t>Requeijão Cremoso Catupiry 150g Zero Lactose</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f4ee15a-6170-4dcf-87e7-e9cf4283c94a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cbce147-2821-47d1-aee6-e44ad0fcd784.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7896353302204</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Margarina Claybom 1kg Com Sal</t>
+          <t>Margarina Delicia Tablete 400g</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84bfd82f-0d7c-4c48-a06b-0544dd03c6a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f766fbab-1910-4bc3-b724-35ceeaad4583.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7894904281015</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Requeijao Itambé Cremoso 220g</t>
+          <t>Margarina Delicia 500g Com Sal Creme De Leite</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 9,79</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20f00806-18cf-4600-a6be-810cd5bb0ab1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdd2e335-bdbd-4932-a1ff-ef13664825be.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7894904271528</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Margarina Qualy Com Sal 500g Aerada</t>
+          <t>Requeijão Danubio 190g Light</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3eed39c-7cd7-4195-8c2b-482046a56146.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3eca975-a712-4158-aa2d-fea6ec9fe1a4.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896625211234</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Margarina Qualy Com Sal Aerada 250g</t>
+          <t>Requeijão Danubio 190g Tradicional</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4e6ebed-25c7-4a6e-b244-b45a765c5a5f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89252acd-c850-4fc0-a106-c0326e920de6.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7896625211227</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Banha Suina Refinada Sadia 500g</t>
+          <t>Requeijão Vigor 400g Tradicional</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 21,49</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/019172eb-0b53-40e4-8374-603c4ba3bffb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b57320d-2736-4756-8e79-0a30b7c6cc3d.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896625211401</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Requeijao Lacfree Vc 180g Trad</t>
+          <t>Requeijão Cremoso Tirol 180g Tradicional</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,79</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c672535-1237-447e-8feb-fdbcf6d8c871.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec00c1f-8166-4975-a6c6-398fe005d18e.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7896294900712</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Requeijao Cremoso Quata Bisnaga 250g</t>
+          <t>Requeijão Cremoso Catupiry 420g Tradicional Copo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2853666b-b9df-4aa4-b919-3806f87c9df8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/717176e0-651d-49c4-b35d-e15815f82af5.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7896353302068</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Margarina Doriana Light Com Sal 500g</t>
+          <t>Requeijão Cremoso Paulista 180g Cheddar</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f05a9c2-451d-4a2c-9c42-ffb03a5af003.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb134117-afdc-40e2-b3fa-2725b1052d39.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7896294901634</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Requeijao Crem Catupiry 250g 4 Queijos</t>
+          <t>Requeijão Cremoso Paulista 180g</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8378d600-7e73-44da-b663-7fd90e550356.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bccbacfa-43d6-44f4-93d8-90a02a6332b8.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7896294901634</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Requeijão Catupiry 180g Ceb Caramelizada</t>
+          <t>Margarina Claybom 500g Com Sal Sabor Manteiga</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/561f20ce-2ebf-4ea9-887d-14d3989bca25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d1a9fff-dfef-4311-b444-76756ffc2942.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7891515548889</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Requeijao Itambé Light 220g</t>
+          <t>Manteiga Paulista Pote 200g Sem Sal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91cd5a51-ce5c-45c1-bb6d-917acce226fd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dae440c9-e5c8-4f94-8929-eb3f612df127.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896331100389</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Requeijao De Castanha De Caju Vida Veg 180g Tradicional</t>
+          <t>Manteiga Paulista Pote 200g Com Sal</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 15,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1094d22f-7040-4e57-8ff7-dd4b38a0b648.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae9c83d8-9961-4e71-a8bd-371a1b1098e2.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896331100327</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Chanty Mix 1l Amelia</t>
+          <t>Manteiga Aviacao Pote 200g Zero Lactose</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf67bb6b-6427-41b0-be31-64519b23c27b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e65ff4e-4842-4c0d-9f61-ee430e4dfa42.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896331101263</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Creme Vegetal Mant Becel Pt 250g C/ Sal</t>
+          <t>Manteiga Catupiry 500g C/sal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85417bff-047d-450a-8373-b543d3c91375.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d98c991-e4b1-45bc-9d81-b4e888474262.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896353303058</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Manteiga Tirolez Tab 200g S/ Sal</t>
+          <t>Manteiga Catupiry 500g S/sal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff225c2d-9543-4b76-97dd-cc0af285c1ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff13fe04-21ea-41ae-89bc-e4b694bcc3c6.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7896353303065</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Margarina Qualy Sem Lactose Com Sal 250gr</t>
+          <t>Molho Catupiry Devore 150g Cebola/salsa</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3c030db-1bef-4ca5-9b7b-c5cbf780dd2c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e021ebf3-f7a4-47d6-95b0-2388d3349867.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7896353303348</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Manteiga Extra Serramar Pt 200g S/sal</t>
+          <t>Molho Catupiry Devore 150g Cheddar</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a4d1604-73ac-4e04-ab29-ba7716d4d4a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6265af15-e1b5-49fa-9c62-8bdd68577065.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7896353303348</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Manteiga Matilat Pote 200g S/ Sal</t>
+          <t>Requeijao Tirolez 400g Light</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69787ceb-a5ae-4aa5-80c5-1eee66fc46e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6b23d69-f905-42c5-80a3-cd01692a2883.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7896030521706</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Requeijao Castanha Caju Vida Veg 180g Defumado</t>
+          <t>Margarina Delicia Supreme 500g C/ Sal Creme De Leite</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 15,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6db7c720-62fc-47b2-86b7-c5fbcf89f4da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dccd2249-f3e1-4d70-9893-0e8c798cf762.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7891515555337</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Requeijão Cremoso Paulista 180g Cheddar</t>
+          <t>Requeijão Cremoso Catupiry 420g Light</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb134117-afdc-40e2-b3fa-2725b1052d39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa3a9fe6-5a83-48f1-b2bb-5b042cda9bc4.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7896353302075</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nata Serramar Pt300g</t>
+          <t>Manteiga Extra Serramar Pt 200g S/sal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43b77091-8082-476b-aed0-589a3a4456de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a4d1604-73ac-4e04-ab29-ba7716d4d4a9.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7897951610623</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Requeijão Aviaçao 180g Cheddar</t>
+          <t>Nata Serramar Pt300g</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3386bed-e2db-4493-9b8b-26fa4b86ed1c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43b77091-8082-476b-aed0-589a3a4456de.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7897951614713</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Creme Vegetal Qualy Vita 250gr C/sal</t>
+          <t>Requeijao Serramar 180g Cremoso</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 7,79</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff3ff1e4-1649-4040-8e74-380b81046585.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29ffdc7e-8f22-48b6-b1e0-5404db4244a1.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7896294901634</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Pasta De Castanha De Caju Vida Veg 180g Ceb Caramelizada</t>
+          <t>Margarina Delicia 1kg Com Sal Creme De Leite</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c05d481a-f8b2-44ee-82bd-b2ba7ae2f8aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ede7690b-8610-414a-a964-00bae4d8ae58.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7893000080485</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Gordura Vegetal Primor 500g</t>
+          <t>Requeijao Batavo Pense Zero 400g</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc71df54-a84a-4350-b057-132abf9e9485.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6ab71d9-9d95-4ed9-845d-ffbb7512b2bd.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7891097104794</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Margarina Delicia Tablete 400g</t>
+          <t>Homus Vida Veg 100g Alho E Limão</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f766fbab-1910-4bc3-b724-35ceeaad4583.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d5205f-bc38-4ebc-8946-3ea3d65e6793.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7898760040106</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pate De Provolone 120g</t>
+          <t>Homus Vida Veg 100g Defumado</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 10,78</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f4868dc-98f6-4f90-9b94-41bc44bbd134.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7898760040083</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Requeijao Crem Catupiry 250g Cheddar</t>
+          <t>Homus Vida Veg 100g Tradicional</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87fe76d1-48aa-474c-8322-1cd3692d6ba7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c71ccd55-d658-4d1e-a99d-ae91f7dcd2f5.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7898760040113</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Creme Vegetal Qualy Vita 500gr S/sal</t>
+          <t>Margarina Becel Gourmet Com Sal 500g</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9ac1197-122e-4d08-ad78-710535a934dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e01a03ba-fbb9-493a-b5b3-10be2e7859e7.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7891515644482</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pate Homus Baba Sol 200g Mediterraneo</t>
+          <t>Requeijão Cremoso Catupiry 410g Madeira</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2577b199-7967-46af-b29e-3d4d6854571e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e61ba3f3-2126-482c-a1a4-bde820ad4d61.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7896353300019</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Homus Vida Veg 100g Alho E Limão</t>
+          <t>Cream Cheese Catupiry Squeeze 250g</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15d5205f-bc38-4ebc-8946-3ea3d65e6793.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ad538bc-9f91-42a5-a2f5-04762b6b0e04.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7896353302945</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Homus Vida Veg 100g Tradicional</t>
+          <t>Margarina Qualy 100% Vegetal 250g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c71ccd55-d658-4d1e-a99d-ae91f7dcd2f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f29d193-4cef-468e-9ef1-d3b3e3932e23.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7891515586348</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pate De Salsa E Cebolinha 100g</t>
+          <t>Manteiga Tirolez 200g Zero Lactose</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8cabd0be-4274-4535-925c-6645068d633b.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7896030521768</t>
         </is>
       </c>
     </row>
@@ -3620,746 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pate Homus Baba Sol 200g Tradicional</t>
+          <t>Margarina Becel Toque Gourmet Com Sal 250g</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91f91462-5432-4d3a-b334-dded87ed2b0c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Requeijao Catupiry Plantury 180g Alho, Cebola E Salsa</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7547bbb6-07a5-47b1-9f89-0c9efc41a428.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Pate De Alho Poró 100g</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Pate Damm 120g Ricota C/manjericão</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03a2744-e8b2-4fba-b8ed-e879b0cd7041.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Pate Damm 120g Ricota C/salmão</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db975cdf-45f8-4e28-838e-178ce1653d41.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Molho Polenghi 220g Cheddar</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3834a86-5351-460b-ae63-71b86611952f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Homus Vida Veg 100g Defumado</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f4868dc-98f6-4f90-9b94-41bc44bbd134.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Mant La Motte President 250g C/sal</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/421fd197-afcb-4e27-adbf-997816fec17c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Requeijao Catupiry 180g Plantury Tradicional</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8491839a-74d7-4b5a-9e1c-398d2149185e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Tahine Baba Sol 200g Tradicional</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e36dfe87-32a9-4ae7-bac3-b18d949b41bc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Manteiga Paysan Breton 200g Tab C/sal</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa5a28c3-6b6b-4caa-987c-ca1886834ba6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Requeijão Catupiry 180g Pimenta Biquinho</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 11,49</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2284fc93-aae9-43eb-9062-394de034b1f4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Manteiga Catupiry 500g S/sal</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff13fe04-21ea-41ae-89bc-e4b694bcc3c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Requeijao Crem Catupiry 250g Alho Poro</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffe0e0d1-6b0e-4967-a27d-690360a5f762.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Requeijao Batavo Pense Zero 400g</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6ab71d9-9d95-4ed9-845d-ffbb7512b2bd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Pasta De Beringela Caramelizada Baba Sol 200g</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b289acb4-31ec-4137-b12f-85c38563a4e0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Creme De Ricota Damm 120g Brie E Damasco</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d72383ec-2659-4aea-9df3-3103bc86d0a0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Pote De Sardella Montini 180g</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Molho Catupiry Devore 150g Cheddar</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6265af15-e1b5-49fa-9c62-8bdd68577065.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Requeijão Cremoso Catupiry 410g Madeira</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e61ba3f3-2126-482c-a1a4-bde820ad4d61.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Pate De Cheddar 100g</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Molho Catupiry Devore 150g Cebola/salsa</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e021ebf3-f7a4-47d6-95b0-2388d3349867.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Margarina Becel Toque Gourmet Com Sal 250g</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daf62d60-48d6-4d28-b94c-f9b90c569490.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Pasta De Abobrinha Babasol 200g</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7606de79-95c0-4d16-a50f-bbf879d528ab.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Cream Cheese Catupiry Squeeze 250g</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ad538bc-9f91-42a5-a2f5-04762b6b0e04.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Margarina Becel Gourmet Com Sal 500g</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e01a03ba-fbb9-493a-b5b3-10be2e7859e7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Margarina Qualy 100% Vegetal 250g</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f29d193-4cef-468e-9ef1-d3b3e3932e23.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Frios</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Margarinas, manteigas e requeijoes</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Manteiga Tirolez 200g Zero Lactose</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8cabd0be-4274-4535-925c-6645068d633b.jpg</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7891515644482</t>
         </is>
       </c>
     </row>
